--- a/Marketing/masterAccountSheet.xlsx
+++ b/Marketing/masterAccountSheet.xlsx
@@ -1,68 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>TargetAccount</t>
-  </si>
-  <si>
-    <t>Users Left To Follow</t>
-  </si>
-  <si>
-    <t>Blocked</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,70 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -143,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -184,71 +182,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -272,53 +268,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -328,7 +325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -337,7 +334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -346,7 +343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -354,10 +351,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -386,7 +383,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -399,12 +396,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -422,58 +420,438 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TargetAccount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Users Left To Follow</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>uw.roomme</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>uw2027huskies</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>714</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ucsd.roomme</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ucsd2028official</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>860</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>iowa.roomme</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>iowa2028classofficial</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>713</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>uci.roomme</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>uci_2028</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>854</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>utah.roomme</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>uofutah2028bios</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1088</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>uconn.roomme</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>uconn.2027</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1213</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mizzou.roomme</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mizzou2028bios</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>492</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>kansas.roomme</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>kansas2028class</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>97</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ou.roomme</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ousooners2028</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>627</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>olemissu.roomme</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>olemissclass2028_</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1127</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>buffalo.roomme</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ubuffalo2028</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>905</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cowboys.roomme</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>okstate2028bios</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>241</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>uwm.roomme</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>uwm_classof2027</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1016</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>nebraska.roomme</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>nebraskaclassof.2028</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1071</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>umass.roomme</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>umassamherstclass.2028</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ucsb.roomme</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ucsb2028.official</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ucla.roomme</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ucla2028_</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>996</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Marketing/masterAccountSheet.xlsx
+++ b/Marketing/masterAccountSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="116">
   <si>
     <t>Username</t>
   </si>
@@ -82,7 +82,7 @@
     <t>kansas.roomme</t>
   </si>
   <si>
-    <t>kansas2028class</t>
+    <t>kansaschicks</t>
   </si>
   <si>
     <t>ou.roomme</t>
@@ -97,6 +97,9 @@
     <t>olemissclass2028_</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>buffalo.roomme</t>
   </si>
   <si>
@@ -301,10 +304,64 @@
     <t>wfu.2027</t>
   </si>
   <si>
+    <t>asu.roomme</t>
+  </si>
+  <si>
+    <t>asu2028meet</t>
+  </si>
+  <si>
+    <t>umn.roomme</t>
+  </si>
+  <si>
+    <t>umnclass2028</t>
+  </si>
+  <si>
+    <t>oregon.roomme</t>
+  </si>
+  <si>
+    <t>oregon2028.official</t>
+  </si>
+  <si>
+    <t>arizona.roomme</t>
+  </si>
+  <si>
+    <t>uofaclassof2028___</t>
+  </si>
+  <si>
+    <t>cuboulder.roomme</t>
+  </si>
+  <si>
+    <t>boulder2028class</t>
+  </si>
+  <si>
     <t>ucla.roomme</t>
   </si>
   <si>
     <t>ucla2028_</t>
+  </si>
+  <si>
+    <t>rutgersu.roomme</t>
+  </si>
+  <si>
+    <t>rutgersco</t>
+  </si>
+  <si>
+    <t>uwmadison.roomme</t>
+  </si>
+  <si>
+    <t>wisco2028official</t>
+  </si>
+  <si>
+    <t>illinois.roomme</t>
+  </si>
+  <si>
+    <t>uiuc2028official</t>
+  </si>
+  <si>
+    <t>tamu.roomme</t>
+  </si>
+  <si>
+    <t>tamu.classof2027</t>
   </si>
 </sst>
 </file>
@@ -375,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,9 +444,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -700,20 +754,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -741,13 +795,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="4">
-        <v>714</v>
+        <v>629</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -758,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="4">
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -775,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="4">
-        <v>713</v>
+        <v>653</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -792,13 +846,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="4">
-        <v>854</v>
+        <v>794</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -809,13 +863,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="4">
-        <v>1088</v>
+        <v>1028</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -826,13 +880,13 @@
         <v>18</v>
       </c>
       <c r="D7" s="4">
-        <v>1213</v>
+        <v>1153</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -843,13 +897,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="4">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -860,13 +914,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="4">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -877,13 +931,13 @@
         <v>24</v>
       </c>
       <c r="D10" s="4">
-        <v>627</v>
+        <v>567</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -897,584 +951,771 @@
         <v>1127</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4">
+        <v>845</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4">
+        <v>201</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4">
+        <v>996</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1051</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1044</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1107</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4">
+        <v>608</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4">
+        <v>685</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4">
+        <v>465</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="4">
+        <v>572</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="4">
+        <v>754</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="4">
+        <v>958</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4">
+        <v>97</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1170</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4">
+        <v>542</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="4">
+        <v>811</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1097</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="4">
+        <v>879</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="4">
+        <v>871</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1393</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="4">
+        <v>583</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1081</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="4">
+        <v>526</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="4">
+        <v>742</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1146</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="4">
+        <v>556</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1290</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1022</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1069</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4">
-        <v>905</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4">
-        <v>241</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1016</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1071</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1064</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="4">
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1107</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="4">
+        <v>612</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="4">
+        <v>124</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="4">
+        <v>381</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="5">
-        <v>628</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5">
-        <v>705</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="5">
-        <v>485</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="5">
-        <v>592</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="5">
-        <v>774</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="5">
-        <v>82</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="5">
-        <v>117</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1190</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="5">
-        <v>562</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="5">
-        <v>97</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1117</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="5">
-        <v>899</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="5">
-        <v>911</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1433</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="5">
-        <v>623</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1121</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="5">
-        <v>566</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="5">
-        <v>782</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="5">
-        <v>1186</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="5">
-        <v>596</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1290</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1022</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1069</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1107</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="5">
-        <v>612</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="5">
-        <v>124</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="5">
-        <v>381</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="4">
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="4">
+        <v>629</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="4">
         <v>996</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Marketing/masterAccountSheet.xlsx
+++ b/Marketing/masterAccountSheet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>607</v>
+        <v>427</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>780</v>
+        <v>600</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>774</v>
+        <v>594</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1008</v>
+        <v>828</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1133</v>
+        <v>953</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>412</v>
+        <v>232</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>532</v>
+        <v>352</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>547</v>
+        <v>367</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>825</v>
+        <v>645</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>976</v>
+        <v>796</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1031</v>
+        <v>851</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1024</v>
+        <v>844</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1087</v>
+        <v>907</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>588</v>
+        <v>408</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>665</v>
+        <v>485</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>445</v>
+        <v>265</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>552</v>
+        <v>372</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>734</v>
+        <v>554</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>938</v>
+        <v>758</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>618</v>
+        <v>438</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1150</v>
+        <v>970</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>522</v>
+        <v>342</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>791</v>
+        <v>611</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1077</v>
+        <v>897</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>859</v>
+        <v>679</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>871</v>
+        <v>671</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1393</v>
+        <v>1193</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>583</v>
+        <v>383</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1081</v>
+        <v>881</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>526</v>
+        <v>326</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>742</v>
+        <v>562</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1146</v>
+        <v>966</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>556</v>
+        <v>416</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1270</v>
+        <v>1150</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>982</v>
+        <v>862</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>881</v>
+        <v>761</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>572</v>
+        <v>452</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>84</v>
+        <v>313</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>341</v>
+        <v>221</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1018</v>
+        <v>898</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>616</v>
+        <v>496</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>999</v>
+        <v>879</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1045</v>
+        <v>925</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1002</v>
+        <v>882</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>607</v>
+        <v>427</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>976</v>
+        <v>836</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1122</v>
+        <v>1002</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1150</v>
+        <v>1030</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1007</v>
+        <v>887</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -1682,7 +1682,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>tamu.roomme</t>
+          <t>liberty.roomme</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1692,11 +1692,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>tamu.classof2027</t>
+          <t>libertyclassof2028</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>822</v>
+        <v>297</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -1705,23 +1705,207 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>unc.roomme</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>unc2028_</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>449</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>clemson.roomme</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>clemson2028class</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>497</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>cnu.roomme</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>cnu.2027</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>460</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ur.roomme</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>urichmond2026</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>317</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>vcu.roomme</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vcu2026</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>511</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>cal.roomme</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>berkeleybios2028</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>474</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>trojans.roomme</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>uscco28</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>89</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>tamu.roomme</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>tamu.classof2027</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>702</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
           <t>ucla.roomme</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>RoomMe2023</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>RoomMe2023</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>ucla2028_</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>976</v>
-      </c>
-      <c r="E56" t="b">
+      <c r="D64" t="n">
+        <v>836</v>
+      </c>
+      <c r="E64" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/masterAccountSheet.xlsx
+++ b/Marketing/masterAccountSheet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>427</v>
+        <v>84</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>600</v>
+        <v>323</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>iowa.roomme</t>
+          <t>uci.roomme</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -519,20 +519,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>iowa2028classofficial</t>
+          <t>uci_2028</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>633</v>
+        <v>237</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>uci.roomme</t>
+          <t>utah.roomme</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -542,11 +542,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>uci_2028</t>
+          <t>uofutah2028bios</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>594</v>
+        <v>187</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>utah.roomme</t>
+          <t>uconn.roomme</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -565,20 +565,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>uofutah2028bios</t>
+          <t>uconn.2027</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>uconn.roomme</t>
+          <t>mizzou.roomme</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -588,11 +588,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>uconn.2027</t>
+          <t>mizzou2028bios</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>953</v>
+        <v>184</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mizzou.roomme</t>
+          <t>kansas.roomme</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -611,11 +611,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>mizzou2028bios</t>
+          <t>kansaschicks</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>kansas.roomme</t>
+          <t>ou.roomme</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -634,20 +634,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>kansaschicks</t>
+          <t>ousooners2028</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ou.roomme</t>
+          <t>buffalo.roomme</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -657,11 +657,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ousooners2028</t>
+          <t>ubuffalo2028</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>367</v>
+        <v>108</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -670,7 +670,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>olemissu.roomme</t>
+          <t>cowboys.roomme</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -680,20 +680,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>olemissclass2028_</t>
+          <t>okstate2028bios</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1127</v>
+        <v>111</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>buffalo.roomme</t>
+          <t>uwm.roomme</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -703,11 +703,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ubuffalo2028</t>
+          <t>uwm_classof2027</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>645</v>
+        <v>282</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -716,7 +716,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>cowboys.roomme</t>
+          <t>nebraska.roomme</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -726,11 +726,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>okstate2028bios</t>
+          <t>nebraskaclassof.2028</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -739,7 +739,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>uwm.roomme</t>
+          <t>umass.roomme</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -749,11 +749,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>uwm_classof2027</t>
+          <t>umassamherstclass.2028</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>796</v>
+        <v>246</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -762,7 +762,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>nebraska.roomme</t>
+          <t>ucsb.roomme</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -772,11 +772,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>nebraskaclassof.2028</t>
+          <t>ucsb2028.official</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>851</v>
+        <v>296</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -785,21 +785,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>umass.roomme</t>
+          <t>purdue.roomme</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RoomMe2023</t>
+          <t>RoomMe2023$!$&amp;</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>umassamherstclass.2028</t>
+          <t>purdueclassof2027</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>844</v>
+        <v>358</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -808,21 +808,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ucsb.roomme</t>
+          <t>pitt.roomme</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RoomMe2023</t>
+          <t>RoomMe2023$!$&amp;</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ucsb2028.official</t>
+          <t>pitt2028meet</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>907</v>
+        <v>263</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -831,21 +831,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>purdue.roomme</t>
+          <t>umd.roomme</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RoomMe2023$!$&amp;</t>
+          <t>RoomMe2022</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>purdueclassof2027</t>
+          <t>umd2026</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>408</v>
+        <v>318</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -854,7 +854,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pitt.roomme</t>
+          <t>vt.roomme</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -864,11 +864,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>pitt2028meet</t>
+          <t>vtcommitments</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>485</v>
+        <v>216</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -877,7 +877,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>umd.roomme</t>
+          <t>bu.roomme</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -887,11 +887,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>umd2026</t>
+          <t>bu2027bios</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -900,21 +900,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vt.roomme</t>
+          <t>osu.roomme</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RoomMe2023$!$&amp;</t>
+          <t>RoomMe2022</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>vtcommitments</t>
+          <t>osu2027bios</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>372</v>
+        <v>208</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -923,7 +923,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bu.roomme</t>
+          <t>auburn.roomme</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -933,11 +933,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>bu2027bios</t>
+          <t>auburn.2028</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>554</v>
+        <v>307</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -946,21 +946,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>osu.roomme</t>
+          <t>fsu.roomme</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RoomMe2022</t>
+          <t>RoomMe2023$!$&amp;</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>osu2027bios</t>
+          <t>fsuclassof27</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>758</v>
+        <v>10</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -969,21 +969,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>auburn.roomme</t>
+          <t>wm.roomme</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RoomMe2022</t>
+          <t>RoomMe2023$!$&amp;</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>auburn.2028</t>
+          <t>wmclassof2027</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>438</v>
+        <v>220</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -992,21 +992,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>fsu.roomme</t>
+          <t>umich.roomme</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RoomMe2023$!$&amp;</t>
+          <t>RoomMe2022</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>fsuclassof27</t>
+          <t>umich2027bios</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>970</v>
+        <v>154</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>wm.roomme</t>
+          <t>psu.roomme</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1025,11 +1025,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>wmclassof2027</t>
+          <t>psu2028class</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>umich.roomme</t>
+          <t>uf.roomme</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>umich2027bios</t>
+          <t>ufclassof27</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>611</v>
+        <v>260</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1061,21 +1061,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>psu.roomme</t>
+          <t>iu.roomme</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RoomMe2023$!$&amp;</t>
+          <t>RoomMe2022</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>psu2028class</t>
+          <t>indiana.2027</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897</v>
+        <v>253</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1084,21 +1084,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>uf.roomme</t>
+          <t>ut.roomme</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RoomMe2022</t>
+          <t>RoomMe2023$!$&amp;</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ufclassof27</t>
+          <t>utaustin.2026</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>679</v>
+        <v>233</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1107,7 +1107,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>iu.roomme</t>
+          <t>tennessee.roomme</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1117,11 +1117,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>indiana.2027</t>
+          <t>utk2028meet</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1130,21 +1130,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ut.roomme</t>
+          <t>duke.roomme</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RoomMe2023$!$&amp;</t>
+          <t>RoomMe2022</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>utaustin.2026</t>
+          <t>dukeco2027</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1193</v>
+        <v>196</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1153,7 +1153,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>tennessee.roomme</t>
+          <t>uga.roomme</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>utk2028meet</t>
+          <t>uga2028meet</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>383</v>
+        <v>270</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1176,21 +1176,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>duke.roomme</t>
+          <t>uva.roomme</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RoomMe2022</t>
+          <t>RoomMe2023$!$&amp;</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>dukeco2027</t>
+          <t>uva2027bios</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>881</v>
+        <v>144</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1199,21 +1199,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>uga.roomme</t>
+          <t>usc.roomme</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RoomMe2022</t>
+          <t>RoomMe2023$!$&amp;</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>uga2028meet</t>
+          <t>usc.classof27</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>326</v>
+        <v>46</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>uva.roomme</t>
+          <t>msu.roomme</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>uva2027bios</t>
+          <t>msu2028.bios</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>562</v>
+        <v>164</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1245,21 +1245,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>usc.roomme</t>
+          <t>ncsu.roomme</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RoomMe2023$!$&amp;</t>
+          <t>RoomMe2023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>usc.classof27</t>
+          <t>ncstateclass2028</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>msu.roomme</t>
+          <t>roomme.dsb</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1278,11 +1278,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>msu2028.bios</t>
+          <t>burntcupvt</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1291,21 +1291,21 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ncsu.roomme</t>
+          <t>gt.roomme</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RoomMe2023</t>
+          <t>RoomMe2023$!$&amp;</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ncstateclass2028</t>
+          <t>gt2027bios</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1150</v>
+        <v>249</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -1314,21 +1314,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>roomme.dsb</t>
+          <t>jmu.roommates</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RoomMe2023$!$&amp;</t>
+          <t>RoomMe2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>burntcupvt</t>
+          <t>jmu2028meet</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>862</v>
+        <v>288</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -1337,7 +1337,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>gt.roomme</t>
+          <t>wvu.roomme</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1347,34 +1347,34 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gt2027bios</t>
+          <t>wvu2028class</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1069</v>
+        <v>213</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>jmu.roommates</t>
+          <t>odu.roomme</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RoomMe2023</t>
+          <t>RoomMe2023$!$&amp;</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>jmu2028meet</t>
+          <t>odu.2k27</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>761</v>
+        <v>185</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1383,7 +1383,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>wvu.roomme</t>
+          <t>wfu.roomme</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1393,11 +1393,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>wvu2028class</t>
+          <t>wfuclassof2027</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>452</v>
+        <v>103</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -1406,21 +1406,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>odu.roomme</t>
+          <t>asu.roomme</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RoomMe2023$!$&amp;</t>
+          <t>RoomMe2023</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>odu.2k27</t>
+          <t>asu2028meet</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>313</v>
+        <v>58</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -1429,21 +1429,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>wfu.roomme</t>
+          <t>umn.roomme</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RoomMe2023$!$&amp;</t>
+          <t>RoomMe2023</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>wfu.2027</t>
+          <t>umnclass2028</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>221</v>
+        <v>288</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>asu.roomme</t>
+          <t>oregon.roomme</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1462,11 +1462,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>asu2028meet</t>
+          <t>oregon2028.official</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>898</v>
+        <v>39</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -1475,7 +1475,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>umn.roomme</t>
+          <t>arizona.roomme</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1485,11 +1485,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>umnclass2028</t>
+          <t>uofaclassof2028___</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>496</v>
+        <v>105</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -1498,7 +1498,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>oregon.roomme</t>
+          <t>cuboulder.roomme</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>oregon2028.official</t>
+          <t>boulder2028class</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>879</v>
+        <v>466</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -1521,7 +1521,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>arizona.roomme</t>
+          <t>ucla.roomme</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1531,11 +1531,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>uofaclassof2028___</t>
+          <t>ucla2028_</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -1544,7 +1544,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cuboulder.roomme</t>
+          <t>rutgersu.roomme</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1554,11 +1554,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>boulder2028class</t>
+          <t>rutgersco</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>882</v>
+        <v>182</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -1567,7 +1567,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>uw.roomme</t>
+          <t>uwmadison.roomme</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1577,11 +1577,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>uw2027huskies</t>
+          <t>wisco2028official</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>427</v>
+        <v>210</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -1590,7 +1590,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ucla.roomme</t>
+          <t>illinois.roomme</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1600,11 +1600,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ucla2028_</t>
+          <t>uiuc2028official</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>836</v>
+        <v>429</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>rutgersu.roomme</t>
+          <t>liberty.roomme</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1623,20 +1623,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>rutgersco</t>
+          <t>libertyclassof2028</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1002</v>
+        <v>57</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>uwmadison.roomme</t>
+          <t>unc.roomme</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1646,20 +1646,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>wisco2028official</t>
+          <t>unc2028_</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1030</v>
+        <v>209</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>illinois.roomme</t>
+          <t>clemson.roomme</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1669,11 +1669,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>uiuc2028official</t>
+          <t>clemson2028class</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>887</v>
+        <v>95</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -1682,7 +1682,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>liberty.roomme</t>
+          <t>cnu.roomme</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1692,11 +1692,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>libertyclassof2028</t>
+          <t>cnu.2027</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -1705,7 +1705,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>unc.roomme</t>
+          <t>ur.roomme</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1715,11 +1715,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>unc2028_</t>
+          <t>urichmond2026</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>449</v>
+        <v>187</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -1728,7 +1728,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>clemson.roomme</t>
+          <t>vcu.roomme</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>clemson2028class</t>
+          <t>vcu2026</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>497</v>
+        <v>140</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -1751,7 +1751,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cnu.roomme</t>
+          <t>cal.roomme</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1761,11 +1761,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>cnu.2027</t>
+          <t>berkeleybios2028</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>460</v>
+        <v>326</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -1774,7 +1774,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ur.roomme</t>
+          <t>trojans.roomme</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1784,11 +1784,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>urichmond2026</t>
+          <t>uscco28</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>vcu.roomme</t>
+          <t>tamu.roomme</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1807,105 +1807,13 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>vcu2026</t>
+          <t>tamu.classof2027</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>511</v>
+        <v>318</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>cal.roomme</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>RoomMe2023</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>berkeleybios2028</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>474</v>
-      </c>
-      <c r="E61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>trojans.roomme</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>RoomMe2023</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>uscco28</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>89</v>
-      </c>
-      <c r="E62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>tamu.roomme</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>RoomMe2023</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>tamu.classof2027</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>702</v>
-      </c>
-      <c r="E63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>ucla.roomme</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>RoomMe2023</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>ucla2028_</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>836</v>
-      </c>
-      <c r="E64" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/masterAccountSheet.xlsx
+++ b/Marketing/masterAccountSheet.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>323</v>
+        <v>183</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>187</v>
+        <v>328</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>282</v>
+        <v>142</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>358</v>
+        <v>218</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>318</v>
+        <v>178</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>267</v>
+        <v>127</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>208</v>
+        <v>376</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>307</v>
+        <v>167</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>233</v>
+        <v>113</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>144</v>
+        <v>263</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>164</v>
+        <v>321</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>105</v>
+        <v>393</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>466</v>
+        <v>366</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>429</v>
+        <v>329</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>95</v>
+        <v>375</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>

--- a/Marketing/masterAccountSheet.xlsx
+++ b/Marketing/masterAccountSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="113">
   <si>
     <t>Username</t>
   </si>
@@ -58,7 +58,7 @@
     <t>utah.roomme</t>
   </si>
   <si>
-    <t>uofutah2028bios</t>
+    <t>utah.2028</t>
   </si>
   <si>
     <t>mizzou.roomme</t>
@@ -70,28 +70,13 @@
     <t>kansas.roomme</t>
   </si>
   <si>
-    <t>kansaschicks</t>
-  </si>
-  <si>
-    <t>ou.roomme</t>
-  </si>
-  <si>
-    <t>ousooners2028</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>buffalo.roomme</t>
-  </si>
-  <si>
-    <t>ubuffalo2028</t>
+    <t>kansas2028</t>
   </si>
   <si>
     <t>cowboys.roomme</t>
   </si>
   <si>
-    <t>okstate2028bios</t>
+    <t>okstate2028official</t>
   </si>
   <si>
     <t>uwm.roomme</t>
@@ -109,13 +94,13 @@
     <t>umass.roomme</t>
   </si>
   <si>
-    <t>umassamherstclass.2028</t>
+    <t>umassadmissions</t>
   </si>
   <si>
     <t>ucsb.roomme</t>
   </si>
   <si>
-    <t>ucsb2028.official</t>
+    <t>ucsdadmissions</t>
   </si>
   <si>
     <t>purdue.roomme</t>
@@ -124,7 +109,7 @@
     <t>RoomMe2023$!$&amp;</t>
   </si>
   <si>
-    <t>purdueclassof2027</t>
+    <t>purdue2028official</t>
   </si>
   <si>
     <t>pitt.roomme</t>
@@ -151,37 +136,37 @@
     <t>bu.roomme</t>
   </si>
   <si>
-    <t>bu2027bios</t>
+    <t>bu2028.official</t>
   </si>
   <si>
     <t>osu.roomme</t>
   </si>
   <si>
-    <t>osu2027bios</t>
+    <t>osu2028meet</t>
   </si>
   <si>
     <t>auburn.roomme</t>
   </si>
   <si>
-    <t>auburn.2028</t>
+    <t>auburnclass_2028</t>
   </si>
   <si>
     <t>fsu.roomme</t>
   </si>
   <si>
-    <t>floridastate.2028</t>
+    <t>fsu2028meet</t>
   </si>
   <si>
     <t>wm.roomme</t>
   </si>
   <si>
-    <t>wmclassof2027</t>
+    <t>williamandmary2028_</t>
   </si>
   <si>
     <t>umich.roomme</t>
   </si>
   <si>
-    <t>umich2027bios</t>
+    <t>umich2028.bios</t>
   </si>
   <si>
     <t>psu.roomme</t>
@@ -223,25 +208,25 @@
     <t>uga.roomme</t>
   </si>
   <si>
-    <t>uga2028meet</t>
+    <t>georgiaclassof2028</t>
   </si>
   <si>
     <t>uva.roomme</t>
   </si>
   <si>
-    <t>uva2027bios</t>
+    <t>uva2028bios</t>
   </si>
   <si>
     <t>usc.roomme</t>
   </si>
   <si>
-    <t>usc.classof2028</t>
+    <t>usc2028__</t>
   </si>
   <si>
     <t>msu.roomme</t>
   </si>
   <si>
-    <t>msu2028.bios</t>
+    <t>msu2028spartans</t>
   </si>
   <si>
     <t>ncsu.roomme</t>
@@ -250,22 +235,10 @@
     <t>nc.state.2028</t>
   </si>
   <si>
-    <t>roomme.dsb</t>
-  </si>
-  <si>
-    <t>burntcupvt</t>
-  </si>
-  <si>
     <t>gt.roomme</t>
   </si>
   <si>
-    <t>gt2027bios</t>
-  </si>
-  <si>
-    <t>jmu.roommates</t>
-  </si>
-  <si>
-    <t>jmu2028meet</t>
+    <t>gt2028class</t>
   </si>
   <si>
     <t>wvu.roomme</t>
@@ -289,7 +262,7 @@
     <t>asu.roomme</t>
   </si>
   <si>
-    <t>asuclass.2028</t>
+    <t>asu.2028bios</t>
   </si>
   <si>
     <t>umn.roomme</t>
@@ -319,7 +292,7 @@
     <t>ucla.roomme</t>
   </si>
   <si>
-    <t>ucla.classof27</t>
+    <t>ucla2028.bios</t>
   </si>
   <si>
     <t>rutgersu.roomme</t>
@@ -331,13 +304,13 @@
     <t>uwmadison.roomme</t>
   </si>
   <si>
-    <t>wisco2028official</t>
+    <t>wisco28class</t>
   </si>
   <si>
     <t>illinois.roomme</t>
   </si>
   <si>
-    <t>uiuc2028official</t>
+    <t>uiuc2028intros</t>
   </si>
   <si>
     <t>clemson.roomme</t>
@@ -349,7 +322,7 @@
     <t>cnu.roomme</t>
   </si>
   <si>
-    <t>cnu.2027</t>
+    <t>cnu_admission</t>
   </si>
   <si>
     <t>ur.roomme</t>
@@ -361,7 +334,7 @@
     <t>vcu.roomme</t>
   </si>
   <si>
-    <t>vcu2026</t>
+    <t>vcuadmissions</t>
   </si>
   <si>
     <t>cal.roomme</t>
@@ -772,20 +745,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -813,13 +786,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -830,13 +803,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -847,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="4">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -864,13 +837,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="4">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -881,13 +854,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="4">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -898,13 +871,13 @@
         <v>18</v>
       </c>
       <c r="D7" s="4">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -915,115 +888,115 @@
         <v>20</v>
       </c>
       <c r="D8" s="4">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="4">
+        <v>350</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4">
-        <v>288</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="4">
+        <v>358</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4">
-        <v>96</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="4">
+        <v>256</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4">
-        <v>142</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="4">
+        <v>391</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4">
-        <v>92</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="4">
-        <v>106</v>
+        <v>348</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="4">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1034,497 +1007,497 @@
         <v>36</v>
       </c>
       <c r="D15" s="4">
-        <v>218</v>
+        <v>335</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="4">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" s="4">
-        <v>178</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="4">
-        <v>287</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="4">
+        <v>344</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="4">
-        <v>127</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="4">
-        <v>376</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="4">
+        <v>247</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D21" s="4">
-        <v>167</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="4">
+        <v>363</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="4">
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="4">
-        <v>330</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="4">
+        <v>241</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D24" s="4">
-        <v>237</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="4">
+        <v>260</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="4">
+        <v>326</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="4">
-        <v>120</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="4">
+        <v>332</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D27" s="4">
-        <v>133</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="4">
+        <v>146</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="4">
-        <v>113</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="4">
+        <v>398</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="4">
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="4">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="4">
-        <v>96</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="4">
-        <v>170</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="4">
+        <v>186</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="4">
-        <v>263</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="4">
+        <v>316</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="4">
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="4">
         <v>0</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="E34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="4">
-        <v>321</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="4">
+        <v>283</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="4">
+        <v>290</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="4">
-        <v>303</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="4">
+        <v>142</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="4">
-        <v>149</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="4">
+        <v>359</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="4">
-        <v>188</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="4">
+        <v>296</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="4">
-        <v>113</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="3" t="s">
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="4">
+        <v>325</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="4">
-        <v>85</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="3" t="s">
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="4">
+        <v>365</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="4">
-        <v>262</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="3" t="s">
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="4">
+        <v>330</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="4">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="3" t="s">
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="4">
+        <v>108</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="4">
-        <v>188</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="3" t="s">
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -1533,224 +1506,156 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="4">
+        <v>410</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="4">
-        <v>393</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="3" t="s">
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="4">
+        <v>368</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="4">
-        <v>366</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="3" t="s">
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="4">
+        <v>314</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="3" t="s">
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="4">
+        <v>341</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="4">
-        <v>82</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="3" t="s">
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="4">
+        <v>80</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="4">
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="4">
+        <v>362</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="4">
+        <v>250</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="4">
-        <v>329</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="4">
-        <v>375</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
-      <c r="A52" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="4">
+        <v>209</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="4">
-        <v>247</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="3" t="s">
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D53" s="4">
-        <v>87</v>
+        <v>278</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="4">
-        <v>267</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="4">
-        <v>226</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" s="4">
-        <v>220</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="4">
-        <v>218</v>
-      </c>
-      <c r="E57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
